--- a/C2/test.xlsx
+++ b/C2/test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="620">
   <si>
     <t>学号</t>
   </si>
@@ -1138,6 +1138,2302 @@
 	scanf("%d%d",&amp;a,&amp;b);
 	printf("%lld\n",c);
 	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4672876</t>
+  </si>
+  <si>
+    <t>2022-09-21 15:33:51</t>
+  </si>
+  <si>
+    <t>4672872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 1 ms | 1640 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1732 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1684 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1656 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1680 KB
+</t>
+  </si>
+  <si>
+    <t>1732</t>
+  </si>
+  <si>
+    <t>2022-09-21 15:33:15</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main() 
+{
+	int a,b;
+	long long c=a*1ll*b;
+	scanf("%d%d",&amp;a,&amp;b);
+	printf("%lld\n",c);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4672870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 1 ms | 1652 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1608 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1692 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1592 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1596 KB
+</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>2022-09-21 15:32:54</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main() 
+{
+	int a,b;
+	long long c=a*1ll*b;
+	scanf("%d%d",&amp;a,&amp;b);
+	printf("%lld",c);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4667403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1684 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1688 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1644 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1656 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1640 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-20 10:59:08</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+    int a,b;
+    scanf("%d %d",&amp;a,&amp;b);
+    printf("%ld",a*b);
+    return 0;
+}</t>
+  </si>
+  <si>
+    <t>4667374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1736 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1624 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1676 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1652 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1684 KB
+</t>
+  </si>
+  <si>
+    <t>1736</t>
+  </si>
+  <si>
+    <t>2022-09-20 10:43:31</t>
+  </si>
+  <si>
+    <t>4667369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 2 ms | 1660 KB
+Accepted | 1 * (1 / 5) | 2 ms | 1616 KB
+Wrong Answer | 0 * (1 / 5) | 2 ms | 1636 KB
+Wrong Answer | 0 * (1 / 5) | 2 ms | 1628 KB
+Wrong Answer | 0 * (1 / 5) | 2 ms | 1616 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-20 10:41:24</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main() {
+    int a,b;
+    scanf("%d%d",&amp;a,&amp;b);
+    printf("%d",a*b);
+    return 0;
+}</t>
+  </si>
+  <si>
+    <t>4667129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 2 ms | 1616 KB
+Wrong Answer | 0 * (1 / 5) | 2 ms | 1632 KB
+Wrong Answer | 0 * (1 / 5) | 2 ms | 1656 KB
+Wrong Answer | 0 * (1 / 5) | 2 ms | 1708 KB
+Wrong Answer | 0 * (1 / 5) | 2 ms | 1612 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-20 08:33:23</t>
+  </si>
+  <si>
+    <t>4667127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 1 ms | 1644 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1640 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1736 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1648 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1680 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-20 08:32:55</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main() 
+{
+	int a,b;
+	long long c=a*b*1ll;
+	scanf("%d%d",&amp;a,&amp;b);
+	printf("%lld",c);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>22371414</t>
+  </si>
+  <si>
+    <t>翁艺嘉</t>
+  </si>
+  <si>
+    <t>4658538</t>
+  </si>
+  <si>
+    <t>Other Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runtime Error (SIGBUS)
+Wrong Answer | 0 * (1 / 5) | 5 ms | 1728 KB
+Wrong Answer | 0 * (1 / 5) | 6 ms | 1628 KB
+Runtime Error (SIGSEGV) | 0 * (1 / 5) | 211 ms | 1528 KB
+Runtime Error (SIGSEGV) | 0 * (1 / 5) | 211 ms | 1496 KB
+Runtime Error (SIGBUS) | 0 * (1 / 5) | 208 ms | 1528 KB
+</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>1728</t>
+  </si>
+  <si>
+    <t>2022-09-18 14:53:46</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main()
+{
+	int N,K,i=1;
+	int a[101000];
+	int Nsum,Ksum,minus,minus_sum,ffc,num;
+	int Nzj,Kzj;
+	scanf("%d%d",&amp;N,&amp;K);
+	for(i=1;i&lt;N;i++)
+	{
+	scanf("%d",&amp;a[i]);	
+	 Nsum+=a[i];
+    }
+	if(i&lt;K)
+     	{
+	      Ksum+=a[i];	
+        }
+    Nzj=(Nsum+N-1)/N;
+	minus=(a[i]-Nzj)*(a[i]-Nzj);
+	minus_sum+=minus;
+	ffc=minus_sum/N;
+    Kzj=(Ksum+K-1)/K;
+	for(i=1;i&lt;N;i++)
+	{
+		if(a[i]&gt;Nzj) 
+	    num++;
+	}
+	printf("%d %d %d %d",Nzj,ffc,num,Kzj);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>22373147</t>
+  </si>
+  <si>
+    <t>谢永平</t>
+  </si>
+  <si>
+    <t>4656084</t>
+  </si>
+  <si>
+    <t>Runtime Error (SIGSEGV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 6 ms | 1668 KB
+Wrong Answer | 0 * (1 / 5) | 6 ms | 1644 KB
+Runtime Error (SIGSEGV) | 0 * (1 / 5) | 223 ms | 1476 KB
+Runtime Error (SIGSEGV) | 0 * (1 / 5) | 206 ms | 1440 KB
+Runtime Error (SIGSEGV) | 0 * (1 / 5) | 204 ms | 1364 KB
+</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>1668</t>
+  </si>
+  <si>
+    <t>2022-09-18 09:54:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#include&lt;stdio.h&gt;
+#include&lt;stdlib.h&gt;
+int main()
+{
+	int n,k;
+	int sum=0;
+	int ave,ave2,ave3;
+	scanf("%d%d",&amp;n,&amp;k);
+	int a[101000];
+	for(int i=0;i&lt;n;i++)
+	{
+		scanf("%d",&amp;a[i]);
+		sum+=a[i];
+	}
+	ave=(sum+n-1)/n;
+	int x=0;
+	sum=0;
+	for(int i=0;i&lt;n;i++)
+	{
+		sum+=(a[i]-ave)*(a[i]-ave);
+		if(a[i]&gt;ave) 	x++;
+	}
+	ave2=sum/n;
+	sum=0;
+	for(int i=0;i&lt;k;i++)
+	{
+		sum+=a[i];
+	}
+	ave3=(sum+k-1)/k;
+	printf("%d %d %d %d",ave,ave2,x,ave3);
+	return 0;
+}
+</t>
+  </si>
+  <si>
+    <t>22373349</t>
+  </si>
+  <si>
+    <t>谭婧怡</t>
+  </si>
+  <si>
+    <t>4656017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1640 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1652 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1628 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1712 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1640 KB
+</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>2022-09-18 09:49:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#include&lt;stdio.h&gt;
+int main()
+{
+    int a, b;
+    long long c;
+    scanf("%d%d", &amp;a, &amp;b);
+    c=a*b;
+    printf("%lld", c);
+	return 0;
+}
+</t>
+  </si>
+  <si>
+    <t>22373176</t>
+  </si>
+  <si>
+    <t>林吴扬阳</t>
+  </si>
+  <si>
+    <t>4653654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 1 ms | 1652 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1656 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1632 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1668 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1712 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-17 21:54:19</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main() {
+	long long a, b, c;
+	scanf("%lld %lld,&amp;a,&amp;b");
+	c = a * b;
+	printf("%lld", c);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>22182217</t>
+  </si>
+  <si>
+    <t>蔡欣怡</t>
+  </si>
+  <si>
+    <t>4649212</t>
+  </si>
+  <si>
+    <t>Time Limit Exceed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 6 ms | 1648 KB
+Wrong Answer | 0 * (1 / 5) | 12 ms | 1680 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>3018</t>
+  </si>
+  <si>
+    <t>2022-09-17 10:59:40</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+long long s[105];
+int n,m;
+int a,b;
+int i;
+int main()
+{
+	scanf("%d%d",&amp;n,&amp;m);
+	for(i=1;i&lt;=n;i++)
+	{
+		scanf("%lld",&amp;s[i]);
+	}
+	for(i=1;i&lt;=m;i++)
+	{
+		scanf("%d%d",&amp;a,&amp;b);
+		printf("%lld\n",s[a]+s[b]);
+	}
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4649194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 6 ms | 1640 KB
+Wrong Answer | 0 * (1 / 5) | 12 ms | 1704 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-17 10:58:35</t>
+  </si>
+  <si>
+    <t>4649177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 6 ms | 1692 KB
+Wrong Answer | 0 * (1 / 5) | 12 ms | 1632 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-17 10:57:12</t>
+  </si>
+  <si>
+    <t>4649151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 6 ms | 1652 KB
+Wrong Answer | 0 * (1 / 5) | 12 ms | 1688 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-17 10:55:46</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+long long s[105];
+int n,m;
+int a,b;
+int i;
+int main()
+{
+	scanf("%d%d",&amp;n,&amp;m);
+	for(i=1;i&lt;=n;i++)
+	{
+		scanf("%lld",&amp;s[i]);
+	}
+	for(i=1;i&lt;=m;i++)
+	{
+		scanf("%d%d\n",&amp;a,&amp;b);
+		printf("%lld",s[a]+s[b]);
+	}
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4649137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 6 ms | 1584 KB
+Wrong Answer | 0 * (1 / 5) | 5 ms | 1596 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>3011</t>
+  </si>
+  <si>
+    <t>1596</t>
+  </si>
+  <si>
+    <t>2022-09-17 10:54:56</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+long long s[105];
+int n,m;
+int a,b;
+int i;
+int main()
+{
+	scanf("%d",&amp;n,&amp;m);
+	for(i=1;i&lt;=n;i++)
+	{
+		scanf("%lld",&amp;s[i]);
+	}
+	for(i=1;i&lt;=m;i++)
+	{
+		scanf("%d%d\n",&amp;a,&amp;b);
+		printf("%lld",s[a]+s[b]);
+	}
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4649120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 5 ms | 1664 KB
+Wrong Answer | 0 * (1 / 5) | 6 ms | 1612 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>1664</t>
+  </si>
+  <si>
+    <t>2022-09-17 10:53:51</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+long long s[105];
+int n,m;
+int a,b;
+long long sum;
+int i;
+int main()
+{
+	scanf("%d",&amp;n,&amp;m);
+	for(i=1;i&lt;=n;i++)
+	{
+		scanf("%lld",&amp;s[i]);
+	}
+	for(i=1;i&lt;=m;i++)
+	{
+		scanf("%d%d\n",&amp;a,&amp;b);
+		sum=s[a]+s[b];
+		printf("%lld",sum);
+	}
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4649102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 5 ms | 1588 KB
+Wrong Answer | 0 * (1 / 5) | 6 ms | 1488 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>1588</t>
+  </si>
+  <si>
+    <t>2022-09-17 10:52:50</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+long long s[105];
+int n,m;
+int a,b;
+long long sum;
+int i,j;
+int main()
+{
+	scanf("%d",&amp;n,&amp;m);
+	for(i=1;i&lt;=n;i++)
+	{
+		scanf("%lld",&amp;s[i]);
+	}
+	for(j=0;j&lt;m;j++)
+	{
+		scanf("%d%d\n",&amp;a,&amp;b);
+		sum=s[a]+s[b];
+		printf("%lld",sum);
+	}
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4649091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 6 ms | 1500 KB
+Wrong Answer | 0 * (1 / 5) | 6 ms | 1604 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>3012</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>2022-09-17 10:51:49</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+long long s[105];
+int n,m;
+int a,b;
+long long sum;
+int main()
+{
+	scanf("%d",&amp;n,&amp;m);
+	for(int i=1;i&lt;=n;i++)
+	{
+		scanf("%lld",&amp;s[i]);
+	}
+	for(int j=0;j&lt;m;j++)
+	{
+		scanf("%d%d\n",&amp;a,&amp;b);
+		sum=s[a]+s[b];
+		printf("%lld",sum);
+	}
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4649067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 32 ms | 1632 KB
+Wrong Answer | 0 * (1 / 5) | 33 ms | 1684 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+</t>
+  </si>
+  <si>
+    <t>3065</t>
+  </si>
+  <si>
+    <t>2022-09-17 10:50:20</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main()
+{
+	int n,m;
+	int a,b;
+	long long sum;
+	scanf("%d",&amp;n,&amp;m);
+	long long s[105];
+	for(int i=1;i&lt;=n;i++)
+	{
+		scanf("%lld",&amp;s[i]);
+	}
+	for(int j=0;j&lt;m;j++)
+	{
+		scanf("%d%d\n",&amp;a,&amp;b);
+		sum=s[a]+s[b];
+		printf("%lld",sum);
+	}
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>22373238</t>
+  </si>
+  <si>
+    <t>李思成</t>
+  </si>
+  <si>
+    <t>4648969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 1 ms | 1488 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1592 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1632 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1484 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1488 KB
+</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>2022-09-17 10:43:16</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+	char c;
+    int x,y;
+    while(scanf("%d%c%d=",&amp;x,&amp;c,&amp;y)!=EOF)
+    {
+    	if(c=='+')  printf("%d%c%d=%d\n",x,c,y,x+y);
+		if(c=='-')  printf("%d%c%d=%d\n",x,c,y,x-y);
+		if(c=='*')  printf("%d%c%d=%d\n",x,c,y,x*y);
+		if(c=='/'){
+			if(y==0)  printf("Runtime Error\n");
+			else  printf("%d%c%d=%d\n",x,c,y,x/y);
+		}  
+		if(c=='%'){
+			if(y==0)  printf("Runtime Error\n");
+			else  printf("%d%c%d=%d\n",x,c,y,x%y);
+		}  
+    }
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4648469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1708 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1600 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1704 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1656 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1608 KB
+</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>2022-09-17 09:59:37</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main()
+{
+	int a;
+	int b;
+	long long sum;
+	scanf("%d %d",&amp;a,&amp;b);
+	sum=(long long)(a*b) ;
+	printf("%lld",sum);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>22371372</t>
+  </si>
+  <si>
+    <t>田睿敏</t>
+  </si>
+  <si>
+    <t>4648185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1636 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1728 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1628 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1648 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1676 KB
+</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>2022-09-17 09:28:16</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main()
+{
+	long long a,b;
+	long long sum;
+	scanf("%lld%lld",&amp;a,&amp;b);
+	sum=a*b;
+	if(sum&lt;=18446744073709551)
+	printf("%lld",sum);
+	else
+	printf("Error!");
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4648167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 0 ms | 1736 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1652 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1740 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1656 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1660 KB
+</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>2022-09-17 09:26:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#include&lt;stdio.h&gt;
+int main()
+{
+	long long a,b;
+	long long sum;
+	scanf("%d%d",&amp;a,&amp;b);
+	sum=a*b;
+	if(sum&lt;=18446744073709551)
+	printf("%lld",sum);
+	else
+	printf("Error!");
+	return 0;
+}
+</t>
+  </si>
+  <si>
+    <t>4647938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 1 ms | 1732 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1568 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1736 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1688 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1736 KB
+</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>2022-09-17 08:57:12</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main()
+{
+	int a,b;
+	long long sum;
+	scanf("%d%d",&amp;a,&amp;b);
+	sum=a*b;
+	if(sum&lt;=18446744073709551616)
+	printf("%d",sum);
+	else
+	printf("Error!");
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4647894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1644 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1624 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1640 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1652 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1684 KB
+</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>2022-09-17 08:52:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#include&lt;stdio.h&gt;
+int main()
+{
+	int a,b;
+	unsigned long long sum;
+	scanf("%d%d",&amp;a,&amp;b);
+	sum=a*b;
+	if(sum&lt;=4294967295)
+	printf("%d",sum);
+	else
+	printf("Error!");
+	return 0;
+}
+</t>
+  </si>
+  <si>
+    <t>4647222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1640 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1680 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1644 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1676 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1732 KB
+</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>2022-09-16 22:21:28</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+ 	int a, b;
+ 	long long sum;
+ 	scanf("%d%d", &amp;a, &amp;b);
+ 	sum=a*b;
+ 	printf("%lld", sum);
+        return 0;
+}</t>
+  </si>
+  <si>
+    <t>4647202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1640 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1624 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1616 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1624 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1636 KB
+</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>2022-09-16 22:19:59</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+ 	long long a, b;
+ 	int sum;
+ 	scanf("%d%d", &amp;a, &amp;b);
+ 	sum=a*b;
+ 	printf("%lld", sum);
+ return 0;
+}</t>
+  </si>
+  <si>
+    <t>22373453</t>
+  </si>
+  <si>
+    <t>王诗宇</t>
+  </si>
+  <si>
+    <t>4646889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 6 ms | 1636 KB
+Wrong Answer | 0 * (1 / 5) | 6 ms | 1704 KB
+Runtime Error (SIGSEGV) | 0 * (1 / 5) | 214 ms | 1476 KB
+Runtime Error (SIGSEGV) | 0 * (1 / 5) | 204 ms | 1516 KB
+Runtime Error (SIGSEGV) | 0 * (1 / 5) | 209 ms | 1444 KB
+</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>639</t>
+  </si>
+  <si>
+    <t>2022-09-16 21:44:16</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int x[100000];
+int main()
+{int n,k,i;
+int sum=0,sum2=0,sumk=0;
+int navr,narv,narvk;
+int num=0;
+scanf("%d%d",&amp;n,&amp;k);
+for(i=0;i&lt;n;i++)
+{scanf("%d",&amp;x[i]);
+sum+=x[i];
+if(i&lt;k)
+{sumk+=x[i];
+}
+}
+navr=(sum+n-1)/n;
+for(i=0;i&lt;n;i++)
+{sum2+=(x[i]-navr)*(x[i]-navr);
+if(x[i]&gt;navr)
+{num++;
+}
+}
+narv=sum2/n;
+narvk=(sum+k-1)/k;
+printf("%d %d %d %d\n",navr,narv,num,narvk);
+    return 0;
+}</t>
+  </si>
+  <si>
+    <t>4646876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 5 ms | 1656 KB
+Wrong Answer | 0 * (1 / 5) | 6 ms | 1640 KB
+Runtime Error (SIGSEGV) | 0 * (1 / 5) | 203 ms | 1456 KB
+Runtime Error (SIGSEGV) | 0 * (1 / 5) | 206 ms | 1376 KB
+Runtime Error (SIGSEGV) | 0 * (1 / 5) | 205 ms | 1484 KB
+</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>1656</t>
+  </si>
+  <si>
+    <t>2022-09-16 21:43:32</t>
+  </si>
+  <si>
+    <t>22373400</t>
+  </si>
+  <si>
+    <t>梁浩然</t>
+  </si>
+  <si>
+    <t>4646286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1684 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1632 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1732 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1640 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1676 KB
+</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>2022-09-16 18:44:31</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main(){
+	int a,b;
+    long long result;
+	scanf("%d%d",&amp;a,&amp;b);
+	result=(long long)(a*b);
+	printf("%lld",result);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>21182609</t>
+  </si>
+  <si>
+    <t>马昊</t>
+  </si>
+  <si>
+    <t>4645808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main.c:1:8: error: expected '=', ',', ';', 'asm' or '__attribute__' before '&lt;' token
+ include&lt;stdio.h&gt;
+        ^
+</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>2022-09-16 15:18:38</t>
+  </si>
+  <si>
+    <t>include&lt;stdio.h&gt;
+int main()
+{
+    long long a,b;
+   scanf("%lld %lld",&amp;a,&amp;b);
+  printf("%lld",a*b);
+return 0;
+}</t>
+  </si>
+  <si>
+    <t>22373393</t>
+  </si>
+  <si>
+    <t>于耀博</t>
+  </si>
+  <si>
+    <t>4645631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1740 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1680 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1648 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1624 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1660 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-16 13:22:22</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main(){
+	int a, b;
+	long c;
+	scanf("%d%d", &amp;a, &amp;b);
+	c = a * b; 
+	printf("%lld", c);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>22371151</t>
+  </si>
+  <si>
+    <t>王世龙</t>
+  </si>
+  <si>
+    <t>4645618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 1 ms | 1644 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1668 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1660 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1688 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1676 KB
+</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>2022-09-16 13:19:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#include&lt;stdio.h&gt;
+int main()
+{
+	long long a,b,sum;
+	scanf("%lld%lld",&amp;a,&amp;b);
+	sum=a*b;
+	printf("%lld",&amp;sum);
+	return 0;
+ } </t>
+  </si>
+  <si>
+    <t>22371158</t>
+  </si>
+  <si>
+    <t>罗永畅</t>
+  </si>
+  <si>
+    <t>4645447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 1 ms | 1652 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1708 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1628 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1704 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1664 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-16 11:36:56</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main()
+{
+     long long a, b, sum;
+     scanf("%d %d",&amp;a, &amp;b);
+     sum=a*b;
+     printf("%lld",sum);
+     return 0;
+}</t>
+  </si>
+  <si>
+    <t>21373433</t>
+  </si>
+  <si>
+    <t>石睿知</t>
+  </si>
+  <si>
+    <t>4645241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main.c:4:5: error: variably modified 'a' at file scope
+ int a[n];
+     ^
+main.c: In function 'main':
+main.c:9:5: warning: ignoring return value of 'scanf', declared with attribute warn_unused_result [-Wunused-result]
+     scanf("%d%d", a+1, a+2);
+     ^~~~~~~~~~~~~~~~~~~~~~~
+</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>2022-09-16 10:05:17</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+const int n = 100;
+int a[n];
+int main()
+{
+    a[0] = 2;
+    scanf("%d%d", a+1, a+2);
+    printf("%lld\n", a[1] * 1ll * a[2]);
+    return 0;
+}</t>
+  </si>
+  <si>
+    <t>22371565</t>
+  </si>
+  <si>
+    <t>李卓潇</t>
+  </si>
+  <si>
+    <t>4644866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1620 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1704 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1708 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1716 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1668 KB
+</t>
+  </si>
+  <si>
+    <t>1716</t>
+  </si>
+  <si>
+    <t>2022-09-15 23:58:21</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+	int a, b;
+	scanf("%d %d", &amp;a, &amp;b);
+	int sum=a*b;
+	printf("%d", sum);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>22371025</t>
+  </si>
+  <si>
+    <t>卢亦久</t>
+  </si>
+  <si>
+    <t>4644805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 1 ms | 1692 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1756 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1684 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1756 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1644 KB
+</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>1756</t>
+  </si>
+  <si>
+    <t>2022-09-15 23:47:49</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main()
+{
+    double a,y,sum2;
+    int x,sum1;
+    sum1=0;
+    sum2=0;
+    while(scanf("%lf",&amp;a)!=EOF)
+    {
+        x=(int)(a/10)*10; 
+        y=a-x;
+        sum1=sum1+x;
+        sum2=sum2+y;
+    }
+    printf("%d %lf",sum1,sum2);
+    return 0;
+}</t>
+  </si>
+  <si>
+    <t>4644800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 1 ms | 1736 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1744 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1756 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1740 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1688 KB
+</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>2022-09-15 23:47:23</t>
+  </si>
+  <si>
+    <t>/*这题你遇到的困难在哪里？如何取整？？？*/
+#include&lt;stdio.h&gt;
+int main()
+{
+    double a,y,sum2;
+    int x,sum1;
+    sum1=0;
+    sum2=0;
+    while(scanf("%lf",&amp;a)!=EOF)
+    {
+        x=(int)(a/10)*10;  //此处即为精华所在！
+        y=a-x;
+        sum1=sum1+x;
+        sum2=sum2+y;
+    }
+    printf("%d %lf",sum1,sum2);
+    return 0;
+}</t>
+  </si>
+  <si>
+    <t>22373355</t>
+  </si>
+  <si>
+    <t>张照晨</t>
+  </si>
+  <si>
+    <t>4644730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1660 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1736 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1644 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1628 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1688 KB
+</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>2022-09-15 23:34:22</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt; 
+int main()
+{
+	long long a,b;
+	long long c;
+	scanf("%d %d",&amp;a,&amp;b);
+	c=a*b;
+	printf("%d",c);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4644713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 1 ms | 1712 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1616 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1708 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1668 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1620 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-15 23:31:18</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main()
+{
+    double a,c,sum2;
+    int b,sum1;
+    while(scanf("%lf",&amp;a)!=EOF)
+    {
+        b=(int)a%10;
+        c=a-b;
+        sum1=sum1+b;
+        sum2=sum2+c;
+    }
+    printf("%d%lf",sum1,sum2);
+    return 0;
+}</t>
+  </si>
+  <si>
+    <t>4644572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 1 ms | 1652 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1732 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1684 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1736 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1676 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-15 23:14:19</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main(){
+	long long a, b;
+	long long c;
+	scanf("%d%d", &amp;a, &amp;b);
+	c = a * b;
+	printf("%lld", c);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>22373543</t>
+  </si>
+  <si>
+    <t>甄鑫浩</t>
+  </si>
+  <si>
+    <t>4644505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1676 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1736 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1680 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1680 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1640 KB
+</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>2022-09-15 23:05:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#include&lt;stdio.h&gt;
+int main()
+{
+    int a,b;
+    long long c;
+    scanf("%d%d",&amp;a,&amp;b);
+    c=a*b;
+    printf("%lld",c);
+    return 0;
+}
+</t>
+  </si>
+  <si>
+    <t>22371029</t>
+  </si>
+  <si>
+    <t>李炜薏</t>
+  </si>
+  <si>
+    <t>4644331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1624 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1736 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1652 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1656 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1648 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:59:58</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+	long long  a,b;
+	scanf("%11d %11d",  &amp;a,  &amp;b);
+	printf("%d",  a*b);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>22371401</t>
+  </si>
+  <si>
+    <t>张睿轩</t>
+  </si>
+  <si>
+    <t>4643966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1652 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1736 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1692 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1648 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1628 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:58:54</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main()
+{
+	int a,b;
+	long long c;
+	scanf("%d%d",&amp;a,&amp;b);
+	c=a*b;
+	printf("%lld",c);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4643927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentation Error | 0 * (1 / 5) | 1 ms | 1620 KB
+Presentation Error | 0 * (1 / 5) | 1 ms | 1648 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1708 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1656 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1708 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:58:45</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+	long long int a,b;
+	scanf("%11d %11d",&amp;a,&amp;b);
+	printf("%11d",a*b);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>22371201</t>
+  </si>
+  <si>
+    <t>王启蒙</t>
+  </si>
+  <si>
+    <t>4643795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1732 KB
+Accepted | 1 * (1 / 5) | 2 ms | 1660 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1688 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1644 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1736 KB
+</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:58:13</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main()
+{
+    int a,b;
+	scanf("%d %d",&amp;a,&amp;b);
+	printf("%lld",a*b);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4643786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1676 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1680 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1728 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1692 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1660 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:58:10</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+	long long  a,b;
+	scanf("%d %d",&amp;a, &amp;b);
+	printf("%d",  a  *  b);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>22371299</t>
+  </si>
+  <si>
+    <t>王浩</t>
+  </si>
+  <si>
+    <t>4643645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 1 ms | 1660 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1668 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1616 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1640 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1632 KB
+</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:57:25</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main()
+{
+   long long c;
+   long long a,b;
+   scanf("%d %d",&amp;a,&amp;b);
+   c=a*b;
+   printf("%lld",c);
+   return 0;
+}</t>
+  </si>
+  <si>
+    <t>22373556</t>
+  </si>
+  <si>
+    <t>柴君伟</t>
+  </si>
+  <si>
+    <t>4643589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 6 ms | 1652 KB
+Wrong Answer | 0 * (1 / 5) | 11 ms | 1664 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+Time Limit Exceed | 0 * (1 / 5) | 1000 ms | 0 KB
+</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>3017</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:57:04</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+    int n, m, g, h;
+    long long int sum;
+    long long int a[10000];
+    scanf("%d%d", &amp;n, &amp;m);
+    for(int i=0;i&lt;n;i++)
+    {
+        scanf("%lld", &amp;a[i]);
+    }
+    for(int o=0;o&lt;m;o++)
+    {
+        scanf("%d%d", &amp;g, &amp;h);
+        sum=a[g-1]+a[h-1];
+        printf("%lld\n", sum);
+    }
+    return 0;
+}</t>
+  </si>
+  <si>
+    <t>22373370</t>
+  </si>
+  <si>
+    <t>田培瑄</t>
+  </si>
+  <si>
+    <t>4643562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 0 ms | 1688 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1644 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1684 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1684 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1660 KB
+</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:56:58</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+#include&lt;stdlib.h&gt;
+#include&lt;math.h&gt;
+int main()
+{
+	int a,b;
+	long long c;
+	scanf("%d %d",&amp;a,&amp;b);
+	c=(long long)(a*b);
+	printf("%.0lld",c);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>22371007</t>
+  </si>
+  <si>
+    <t>李嘉洲</t>
+  </si>
+  <si>
+    <t>4642833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 1 ms | 2028 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 2040 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 2032 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 2096 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 2148 KB
+</t>
+  </si>
+  <si>
+    <t>772</t>
+  </si>
+  <si>
+    <t>2148</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:52:23</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+#include&lt;math.h&gt;
+char c;
+long long x,y;
+int main()
+{
+	double a, b, c;
+	scanf("%lf%lf%lf", &amp;a, &amp;b,&amp;c);
+	if(a!=0)
+	{
+		if((b*b-(4*a*c))&gt;0)
+		{
+			double x1= (-b + sqrt(((b*b-(4*a*c)))))/(a*2);
+			double x2= (-b - sqrt(((b*b-(4*a*c)))))/(a*2);
+			if(x1==-0)
+				a=0;
+			if(x2==-0)
+				b=0;
+			if(x1&lt;x2)
+				printf("%.2lf %.2lf", x1, x2);
+			else
+				printf("%.2lf %.2lf", x1, x2);
+		}	
+		else if(((b*b-(4*a*c))==0))
+		{
+			double x=((-b ) / (a*2));
+			if (x==-0)
+				x=0;
+			printf("%.2lf", x);
+		}
+		else
+			printf("No Solution!");
+	}
+	else
+	{
+		if(b==0)
+		{
+			if(c==0)
+				printf("+inf!");
+			else
+			{
+				printf("No Solution!");
+			}
+		}
+		else
+		{
+			if(c==0)
+				printf("0.00");
+			else
+			{
+				printf("%.2f", -c/(double)b);
+			} 
+		}
+	}
+}</t>
+  </si>
+  <si>
+    <t>4642831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1640 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1652 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1684 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1636 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1680 KB
+</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+	long long  a,b;
+	scanf("%d %d",&amp;a,&amp;b);
+	printf("%d",a*b);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>21371344</t>
+  </si>
+  <si>
+    <t>符芳彬</t>
+  </si>
+  <si>
+    <t>4642616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 0 ms | 1656 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1660 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1680 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1684 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1680 KB
+</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:50:41</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+#include &lt;stdlib.h&gt;
+#include &lt;string.h&gt;
+void re(char *first,char *last)
+{
+    char t;
+    while(first&lt;last)
+    {
+        t=*last;
+        *last=*first;
+        *first=t;
+        first++;
+        last--;
+    }
+}
+int main()
+{
+   long long a,b;
+    long long c;
+    scanf("%d %d",&amp;a,&amp;b);
+    c=a*b;
+    printf("%d",c);
+    return 0;
+    }</t>
+  </si>
+  <si>
+    <t>21371164</t>
+  </si>
+  <si>
+    <t>何永欣</t>
+  </si>
+  <si>
+    <t>4642527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1736 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1692 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1648 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1696 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1740 KB
+</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:50:00</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main()
+{
+	int a,b;
+	scanf("%d%d",&amp;a,&amp;b);
+	printf("%d",a*b);
+ }</t>
+  </si>
+  <si>
+    <t>4642425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentation Error | 0 * (1 / 5) | 1 ms | 1744 KB
+Presentation Error | 0 * (1 / 5) | 0 ms | 1732 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1652 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1740 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1728 KB
+</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>1744</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:49:20</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+#include&lt;stdlib.h&gt;
+#include&lt;math.h&gt;
+int main()
+{
+	int a,b;
+	double c;
+	scanf("%d %d",&amp;a,&amp;b);
+	c=(double)(a)*b;
+	printf(" %.0f",c);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4642337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentation Error | 0 * (1 / 5) | 0 ms | 1632 KB
+Presentation Error | 0 * (1 / 5) | 1 ms | 1732 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1656 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1684 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1636 KB
+</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:48:47</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+	long long  a, b;
+	scanf("%11d %11d",  &amp;a,  &amp;b);
+	printf("%11d", a * b  );
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4642027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1656 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1692 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1644 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1732 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1656 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:46:36</t>
+  </si>
+  <si>
+    <t>22371129</t>
+  </si>
+  <si>
+    <t>白晶芯</t>
+  </si>
+  <si>
+    <t>4641899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 0 ms | 1680 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1684 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1640 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1660 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1680 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:45:35</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main()
+{
+	long long int a,b;
+	long long int c;
+	scanf("%d %d",&amp;a,&amp;b);
+	c=a*b;
+	printf("%lld",c);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4641866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentation Error | 0 * (1 / 5) | 1 ms | 1652 KB
+Presentation Error | 0 * (1 / 5) | 1 ms | 1652 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1680 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1648 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1736 KB
+</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:45:20</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+	long long  a,b;
+	scanf("%11d%11d",&amp;a,&amp;b);
+	printf("%11d",a*b);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4641705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1628 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1716 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1644 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1660 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1708 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:44:15</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main()
+{
+	int a,b;
+	long long int c;
+	scanf("%d %d",&amp;a,&amp;b);
+	c=a*b;
+	printf("%lld",c);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4641656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentation Error | 0 * (1 / 5) | 0 ms | 1688 KB
+Presentation Error | 0 * (1 / 5) | 1 ms | 1728 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1688 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1676 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1692 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:43:53</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+	long long  a, b;
+	scanf("%11d %11d", &amp;a, &amp;b);
+	printf("%11d", a * b );
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4641621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 0 ms | 1684 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1660 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1644 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1648 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1664 KB
+</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:43:35</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+#include &lt;stdlib.h&gt;
+#include &lt;string.h&gt;
+void re(char *first,char *last)
+{
+    char t;
+    while(first&lt;last)
+    {
+        t=*last;
+        *last=*first;
+        *first=t;
+        first++;
+        last--;
+    }
+}
+int main()
+{
+    int a,b;
+    long long c;
+    scanf("%d %d",&amp;a,&amp;b);
+    c=a*b;
+    printf("%d",c);
+    return 0;
+    }</t>
+  </si>
+  <si>
+    <t>22373262</t>
+  </si>
+  <si>
+    <t>周剑坤</t>
+  </si>
+  <si>
+    <t>4641594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Answer | 0 * (1 / 5) | 1 ms | 1644 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1628 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1684 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1636 KB
+Wrong Answer | 0 * (1 / 5) | 0 ms | 1656 KB
+</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:43:23</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main()
+{
+    long long a,b;
+    long long c;
+    scanf("%hd%hd",&amp;a,&amp;b);
+    c=a*b;
+    printf("%lld",c);
+	return 0;   
+}</t>
+  </si>
+  <si>
+    <t>22373263</t>
+  </si>
+  <si>
+    <t>李天祎</t>
+  </si>
+  <si>
+    <t>4641496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1644 KB
+Accepted | 1 * (1 / 5) | 1 ms | 1736 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1680 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1688 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1740 KB
+</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:42:41</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+long long c;
+int main()
+{
+	long long c;
+	int a,b;
+	scanf("%d%d",&amp;a,&amp;b);
+	c=a*b;
+	printf("%d",c);
+	return 0;
+}</t>
+  </si>
+  <si>
+    <t>4641478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main.c:29:1: error: expected identifier or '(' before '}' token
+ }
+ ^
+main.c: In function 'main':
+main.c:22:5: warning: ignoring return value of 'scanf', declared with attribute warn_unused_result [-Wunused-result]
+     scanf("%d %d",&amp;a,&amp;b);
+     ^~~~~~~~~~~~~~~~~~~~
+</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:42:31</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+#include &lt;stdlib.h&gt;
+#include &lt;string.h&gt;
+void re(char *first,char *last)
+{
+    char t;
+    while(first&lt;last)
+    {
+        t=*last;
+        *last=*first;
+        *first=t;
+        first++;
+        last--;
+    }
+}
+int main()
+{
+    int a,b;
+    scanf("%d %d",&amp;a,&amp;b);
+    printf("%d",a*b);
+    return 0;
+    }
+}</t>
+  </si>
+  <si>
+    <t>4641475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted | 1 * (1 / 5) | 1 ms | 1612 KB
+Accepted | 1 * (1 / 5) | 0 ms | 1660 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1656 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1624 KB
+Wrong Answer | 0 * (1 / 5) | 1 ms | 1636 KB
+</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>2022-09-15 20:42:30</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
+int main()
+{
+	long long a,b,c;
+	scanf("%d%d",&amp;a, &amp;b);
+	c=a*b;
+	printf("%d",c);
+    return 0;
 }</t>
   </si>
 </sst>
@@ -2284,15 +4580,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2329,29 +4625,8 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2388,29 +4663,8 @@
       <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-    </row>
-    <row r="3" spans="1:33">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2447,29 +4701,8 @@
       <c r="L3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-    </row>
-    <row r="4" spans="1:33">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -2506,29 +4739,8 @@
       <c r="L4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-    </row>
-    <row r="5" spans="1:33">
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -2565,29 +4777,8 @@
       <c r="L5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-    </row>
-    <row r="6" spans="1:33">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -2624,29 +4815,8 @@
       <c r="L6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-    </row>
-    <row r="7" spans="1:33">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -2683,29 +4853,8 @@
       <c r="L7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="1:33">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -2742,29 +4891,8 @@
       <c r="L8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-    </row>
-    <row r="9" spans="1:33">
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>70</v>
       </c>
@@ -2801,29 +4929,8 @@
       <c r="L9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-    </row>
-    <row r="10" spans="1:33">
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
@@ -2860,29 +4967,8 @@
       <c r="L10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-    </row>
-    <row r="11" spans="1:33">
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
@@ -2919,29 +5005,8 @@
       <c r="L11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-    </row>
-    <row r="12" spans="1:33">
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
@@ -2978,29 +5043,8 @@
       <c r="L12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-    </row>
-    <row r="13" spans="1:33">
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
@@ -3037,29 +5081,8 @@
       <c r="L13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-    </row>
-    <row r="14" spans="1:33">
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>104</v>
       </c>
@@ -3096,29 +5119,8 @@
       <c r="L14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-    </row>
-    <row r="15" spans="1:33">
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>111</v>
       </c>
@@ -3155,29 +5157,8 @@
       <c r="L15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-    </row>
-    <row r="16" spans="1:33">
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>111</v>
       </c>
@@ -3214,29 +5195,8 @@
       <c r="L16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-    </row>
-    <row r="17" spans="1:33">
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>111</v>
       </c>
@@ -3273,29 +5233,8 @@
       <c r="L17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-    </row>
-    <row r="18" spans="1:33">
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>131</v>
       </c>
@@ -3332,29 +5271,8 @@
       <c r="L18" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-    </row>
-    <row r="19" spans="1:33">
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>138</v>
       </c>
@@ -3391,29 +5309,8 @@
       <c r="L19" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-    </row>
-    <row r="20" spans="1:33">
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>138</v>
       </c>
@@ -3450,29 +5347,8 @@
       <c r="L20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-    </row>
-    <row r="21" spans="1:33">
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>149</v>
       </c>
@@ -3509,29 +5385,8 @@
       <c r="L21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-    </row>
-    <row r="22" spans="1:33">
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>149</v>
       </c>
@@ -3568,29 +5423,8 @@
       <c r="L22" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-    </row>
-    <row r="23" spans="1:33">
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>161</v>
       </c>
@@ -3627,29 +5461,8 @@
       <c r="L23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-    </row>
-    <row r="24" spans="1:33">
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>138</v>
       </c>
@@ -3686,29 +5499,8 @@
       <c r="L24" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-    </row>
-    <row r="25" spans="1:33">
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>174</v>
       </c>
@@ -3745,29 +5537,8 @@
       <c r="L25" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-    </row>
-    <row r="26" spans="1:33">
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>174</v>
       </c>
@@ -3804,29 +5575,8 @@
       <c r="L26" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-    </row>
-    <row r="27" spans="1:33">
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>186</v>
       </c>
@@ -3863,29 +5613,8 @@
       <c r="L27" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-    </row>
-    <row r="28" spans="1:33">
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>186</v>
       </c>
@@ -3922,29 +5651,8 @@
       <c r="L28" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-    </row>
-    <row r="29" spans="1:33">
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>197</v>
       </c>
@@ -3981,29 +5689,8 @@
       <c r="L29" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-    </row>
-    <row r="30" spans="1:33">
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>204</v>
       </c>
@@ -4040,29 +5727,8 @@
       <c r="L30" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-    </row>
-    <row r="31" spans="1:33">
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>204</v>
       </c>
@@ -4099,29 +5765,8 @@
       <c r="L31" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-    </row>
-    <row r="32" spans="1:33">
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>217</v>
       </c>
@@ -4158,29 +5803,8 @@
       <c r="L32" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-    </row>
-    <row r="33" spans="1:33">
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>224</v>
       </c>
@@ -4217,27 +5841,2590 @@
       <c r="L33" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:12">
+      <c r="A48" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:12">
+      <c r="A50" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:12">
+      <c r="A53" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:12">
+      <c r="A56" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:12">
+      <c r="A58" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:12">
+      <c r="A61" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:12">
+      <c r="A62" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:12">
+      <c r="A63" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:12">
+      <c r="A64" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:12">
+      <c r="A65" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:12">
+      <c r="A66" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:12">
+      <c r="A67" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:12">
+      <c r="A68" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:12">
+      <c r="A69" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:12">
+      <c r="A70" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:12">
+      <c r="A71" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:12">
+      <c r="A72" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:12">
+      <c r="A74" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:12">
+      <c r="A75" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:12">
+      <c r="A77" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:12">
+      <c r="A78" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="1:12">
+      <c r="A80" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:12">
+      <c r="A81" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:12">
+      <c r="A82" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="1:12">
+      <c r="A83" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="1:12">
+      <c r="A84" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="1:12">
+      <c r="A85" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:12">
+      <c r="A86" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="1:12">
+      <c r="A87" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="1:12">
+      <c r="A88" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="1:12">
+      <c r="A89" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:12">
+      <c r="A90" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="1:12">
+      <c r="A91" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" spans="1:12">
+      <c r="A92" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="1:12">
+      <c r="A93" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" spans="1:12">
+      <c r="A94" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="1:12">
+      <c r="A95" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="1" spans="1:12">
+      <c r="A96" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="1" spans="1:12">
+      <c r="A97" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="1" spans="1:12">
+      <c r="A98" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="1:12">
+      <c r="A99" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="100" s="1" customFormat="1" spans="1:12">
+      <c r="A100" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="1" spans="1:12">
+      <c r="A101" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>619</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
